--- a/data/trans_dic/MCS12_SP_R3-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/MCS12_SP_R3-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7,4%</t>
+          <t>14,03%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>21,28%</t>
+          <t>20,1%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>18,96%</t>
+          <t>18,25%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>21,65%</t>
+          <t>20,38%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>11,68%</t>
+          <t>20,49%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>30,99%</t>
+          <t>34,38%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>28,44%</t>
+          <t>27,32%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>21,96%</t>
+          <t>25,11%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>9,52%</t>
+          <t>17,24%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>26,05%</t>
+          <t>27,21%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>23,64%</t>
+          <t>22,78%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>21,83%</t>
+          <t>22,82%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,55; 13,1</t>
+          <t>11,56; 16,68</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>14,0; 29,11</t>
+          <t>17,04; 23,15</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>12,25; 27,28</t>
+          <t>15,44; 21,27</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>14,34; 31,88</t>
+          <t>17,71; 24,04</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,85; 18,2</t>
+          <t>17,43; 23,48</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>22,38; 41,6</t>
+          <t>30,62; 38,09</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>19,86; 36,92</t>
+          <t>24,07; 31,21</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>16,89; 28,32</t>
+          <t>22,57; 27,9</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,2; 13,31</t>
+          <t>15,45; 19,28</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>19,87; 31,78</t>
+          <t>24,59; 29,51</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>17,9; 29,46</t>
+          <t>20,53; 25,14</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>17,59; 26,98</t>
+          <t>20,88; 24,83</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>15,35%</t>
+          <t>19,5%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>19,86%</t>
+          <t>22,9%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>18,1%</t>
+          <t>16,3%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>21,1%</t>
+          <t>14,36%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>22,21%</t>
+          <t>29,69%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>35,03%</t>
+          <t>31,62%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>27,09%</t>
+          <t>24,84%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>26,22%</t>
+          <t>27,94%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>18,77%</t>
+          <t>24,61%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>27,43%</t>
+          <t>27,29%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>22,6%</t>
+          <t>20,61%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>23,75%</t>
+          <t>20,4%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>12,48; 18,33</t>
+          <t>17,16; 22,29</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>16,63; 23,2</t>
+          <t>20,14; 25,75</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>15,03; 21,78</t>
+          <t>13,84; 18,67</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>17,77; 24,76</t>
+          <t>7,5; 19,12</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>19,28; 25,85</t>
+          <t>26,71; 32,69</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>31,12; 39,19</t>
+          <t>28,78; 34,82</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>23,74; 30,94</t>
+          <t>22,23; 27,56</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>23,32; 29,55</t>
+          <t>25,76; 30,27</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>16,7; 21,05</t>
+          <t>22,51; 26,4</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>24,84; 30,3</t>
+          <t>25,22; 29,46</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>20,31; 25,39</t>
+          <t>18,89; 22,51</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>21,64; 26,06</t>
+          <t>14,2; 23,69</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>19,5%</t>
+          <t>17,41%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>22,9%</t>
+          <t>20,35%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>16,3%</t>
+          <t>18,61%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>17,28%</t>
+          <t>21,64%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>29,69%</t>
+          <t>25,97%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>31,62%</t>
+          <t>30,95%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>24,84%</t>
+          <t>26,58%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>28,04%</t>
+          <t>41,77%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>24,61%</t>
+          <t>21,71%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>27,29%</t>
+          <t>25,72%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>20,61%</t>
+          <t>22,66%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>22,71%</t>
+          <t>33,11%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>17,16; 22,29</t>
+          <t>14,58; 20,57</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>20,14; 25,75</t>
+          <t>17,22; 23,74</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>13,84; 18,67</t>
+          <t>16,09; 22,01</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>14,27; 20,27</t>
+          <t>18,17; 25,16</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>26,71; 32,69</t>
+          <t>22,86; 29,57</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>28,78; 34,82</t>
+          <t>27,43; 34,19</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>22,23; 27,56</t>
+          <t>23,36; 29,69</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>25,83; 30,38</t>
+          <t>24,19; 66,91</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>22,51; 26,4</t>
+          <t>19,66; 24,46</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>25,22; 29,46</t>
+          <t>23,43; 28,08</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>18,89; 22,51</t>
+          <t>20,69; 24,92</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>20,73; 24,68</t>
+          <t>22,7; 57,03</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>17,41%</t>
+          <t>22,02%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>20,35%</t>
+          <t>24,79%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>18,61%</t>
+          <t>22,29%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>21,88%</t>
+          <t>19,64%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>25,97%</t>
+          <t>28,02%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>30,95%</t>
+          <t>33,85%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>26,58%</t>
+          <t>28,51%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>35,86%</t>
+          <t>27,79%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>21,71%</t>
+          <t>25,16%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>25,72%</t>
+          <t>29,56%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>22,66%</t>
+          <t>25,57%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>29,51%</t>
+          <t>24,05%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,58; 20,57</t>
+          <t>19,3; 24,71</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>17,22; 23,74</t>
+          <t>22,09; 27,59</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>16,09; 22,01</t>
+          <t>19,75; 25,24</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>18,62; 25,29</t>
+          <t>17,31; 22,29</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>22,86; 29,57</t>
+          <t>25,33; 30,73</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>27,43; 34,19</t>
+          <t>31,02; 36,77</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>23,36; 29,69</t>
+          <t>25,72; 31,16</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>25,57; 55,62</t>
+          <t>22,36; 30,81</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>19,66; 24,46</t>
+          <t>23,15; 27,21</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>23,43; 28,08</t>
+          <t>27,71; 31,75</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>20,69; 24,92</t>
+          <t>23,62; 27,51</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>23,53; 46,28</t>
+          <t>21,02; 26,11</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>22,02%</t>
+          <t>18,63%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>24,79%</t>
+          <t>22,28%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>22,29%</t>
+          <t>18,86%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>20,34%</t>
+          <t>18,36%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>28,02%</t>
+          <t>26,55%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>33,85%</t>
+          <t>32,68%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>28,51%</t>
+          <t>26,77%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>29,76%</t>
+          <t>30,91%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>25,16%</t>
+          <t>22,65%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>29,56%</t>
+          <t>27,58%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>25,57%</t>
+          <t>22,9%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>25,46%</t>
+          <t>24,81%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>19,3; 24,71</t>
+          <t>17,28; 19,96</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>22,09; 27,59</t>
+          <t>20,95; 23,86</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>19,75; 25,24</t>
+          <t>17,61; 20,22</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>18,01; 23,02</t>
+          <t>14,2; 20,46</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>25,33; 30,73</t>
+          <t>25,04; 27,96</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>31,02; 36,77</t>
+          <t>31,04; 34,38</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>25,72; 31,16</t>
+          <t>25,3; 28,41</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>27,05; 32,6</t>
+          <t>26,13; 44,18</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>23,15; 27,21</t>
+          <t>21,66; 23,63</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>27,71; 31,75</t>
+          <t>26,52; 28,64</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>23,62; 27,51</t>
+          <t>21,93; 24,0</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>23,53; 27,25</t>
+          <t>21,79; 30,88</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>18,63%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>22,28%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>18,86%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>19,89%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>26,55%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>32,68%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>26,77%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>29,87%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>22,65%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>27,58%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>22,9%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>25,18%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>17,28; 19,96</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>20,95; 23,86</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>17,61; 20,22</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>18,22; 21,57</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>25,04; 27,96</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>31,04; 34,38</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>25,3; 28,41</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>27,21; 37,59</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>21,66; 23,63</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>26,52; 28,64</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>21,93; 24,0</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>23,53; 28,62</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/MCS12_SP_R3-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/MCS12_SP_R3-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>11,56; 16,68</t>
+          <t>11,65; 16,83</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>17,04; 23,15</t>
+          <t>17,19; 22,95</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>15,44; 21,27</t>
+          <t>15,05; 21,33</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>17,71; 24,04</t>
+          <t>17,42; 23,42</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>17,43; 23,48</t>
+          <t>17,68; 23,46</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>30,62; 38,09</t>
+          <t>30,56; 38,21</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>24,07; 31,21</t>
+          <t>24,07; 30,55</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>22,57; 27,9</t>
+          <t>22,66; 27,61</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>15,45; 19,28</t>
+          <t>15,36; 19,46</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>24,59; 29,51</t>
+          <t>24,6; 29,59</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>20,53; 25,14</t>
+          <t>20,67; 25,23</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>20,88; 24,83</t>
+          <t>20,82; 24,81</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>17,16; 22,29</t>
+          <t>16,77; 22,13</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>20,14; 25,75</t>
+          <t>20,3; 26,02</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>13,84; 18,67</t>
+          <t>14,17; 18,8</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,5; 19,12</t>
+          <t>7,38; 18,87</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>26,71; 32,69</t>
+          <t>26,97; 32,71</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>28,78; 34,82</t>
+          <t>28,73; 34,61</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>22,23; 27,56</t>
+          <t>21,92; 27,66</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>25,76; 30,27</t>
+          <t>25,37; 30,51</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>22,51; 26,4</t>
+          <t>22,58; 26,68</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>25,22; 29,46</t>
+          <t>25,45; 29,34</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>18,89; 22,51</t>
+          <t>18,85; 22,42</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>14,2; 23,69</t>
+          <t>13,19; 23,53</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>14,58; 20,57</t>
+          <t>14,47; 20,67</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>17,22; 23,74</t>
+          <t>17,41; 23,59</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>16,09; 22,01</t>
+          <t>15,74; 21,75</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>18,17; 25,16</t>
+          <t>18,33; 25,35</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>22,86; 29,57</t>
+          <t>22,81; 29,42</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>27,43; 34,19</t>
+          <t>27,73; 34,77</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>23,36; 29,69</t>
+          <t>23,54; 30,2</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>24,19; 66,91</t>
+          <t>24,1; 68,18</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>19,66; 24,46</t>
+          <t>19,51; 23,93</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>23,43; 28,08</t>
+          <t>23,22; 27,97</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>20,69; 24,92</t>
+          <t>20,43; 24,74</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>22,7; 57,03</t>
+          <t>22,72; 56,35</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>19,3; 24,71</t>
+          <t>19,61; 24,87</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>22,09; 27,59</t>
+          <t>21,82; 27,88</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>19,75; 25,24</t>
+          <t>19,29; 24,9</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>17,31; 22,29</t>
+          <t>17,25; 22,5</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>25,33; 30,73</t>
+          <t>25,07; 30,89</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>31,02; 36,77</t>
+          <t>30,86; 36,81</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>25,72; 31,16</t>
+          <t>25,69; 31,52</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>22,36; 30,81</t>
+          <t>21,84; 30,76</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>23,15; 27,21</t>
+          <t>23,29; 27,02</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>27,71; 31,75</t>
+          <t>27,57; 31,68</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>23,62; 27,51</t>
+          <t>23,62; 27,66</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>21,02; 26,11</t>
+          <t>20,89; 26,1</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>17,28; 19,96</t>
+          <t>17,32; 20,03</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>20,95; 23,86</t>
+          <t>20,83; 23,76</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>17,61; 20,22</t>
+          <t>17,49; 20,2</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>14,2; 20,46</t>
+          <t>14,1; 20,31</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>25,04; 27,96</t>
+          <t>24,9; 28,14</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>31,04; 34,38</t>
+          <t>31,08; 34,52</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>25,3; 28,41</t>
+          <t>25,34; 28,3</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>26,13; 44,18</t>
+          <t>26,16; 43,29</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>21,66; 23,63</t>
+          <t>21,7; 23,73</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>26,52; 28,64</t>
+          <t>26,45; 28,57</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>21,93; 24,0</t>
+          <t>21,91; 23,92</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>21,79; 30,88</t>
+          <t>21,89; 32,04</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población en el primer cuartil de la puntuación del componente de salud mental (SF12)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>223</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>349</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>361</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>301</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>524</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>97353</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>141377</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>123173</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>128401</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>141028</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>239651</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>183818</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>168207</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>238381</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>381028</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>306990</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>296608</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>80886; 116774</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>120898; 161462</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>101565; 143951</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>109777; 147604</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>121710; 161472</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>213046; 266331</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>161938; 205559</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>151802; 184939</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>212395; 269001</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>344530; 414457</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>278600; 340000</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>270649; 322589</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>263</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>294</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>239</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>471</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>437</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>503</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>397</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>673</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>187571</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>233105</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>166661</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>170639</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>287532</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>326392</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>259020</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>266250</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>475103</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>559497</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>425680</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>436889</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>161313; 212824</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>206677; 264854</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>144924; 192213</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>87717; 224176</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>261193; 316764</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>296586; 357198</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>228598; 288512</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>241704; 290744</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>435805; 514991</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>521803; 601437</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>389270; 463088</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>282356; 503763</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>285</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>292</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>359</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>318</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>435</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>118137</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>154157</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>141362</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>151966</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>177601</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>240560</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>208641</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>389098</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>295738</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>394716</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>350002</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>541063</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>98213; 140244</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>131898; 178720</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>119533; 165223</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>128735; 178063</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>156002; 201186</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>215482; 270213</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>184753; 237107</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>224558; 635205</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>265770; 325976</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>356324; 429261</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>315543; 382078</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>371187; 920798</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>335</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>475</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>490</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>559</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>476</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>700</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>207478</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>234940</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>209028</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>181237</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>290976</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>356090</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>297537</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>302668</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>498454</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>591030</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>506565</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>483905</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>184794; 234299</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>206783; 264183</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>180899; 233408</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>159166; 207619</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>260388; 320810</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>324645; 387158</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>268186; 329046</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>237917; 335094</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>461419; 535194</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>551210; 633461</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>468060; 548073</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>420322; 525171</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>595</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>710</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>613</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>868</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>1072</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>879</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>1580</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>1463</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>1782</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>1492</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>2332</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>610539</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>763578</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>640223</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>632243</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>897137</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>1162693</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>949015</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>1126222</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>1507677</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>1926272</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>1589239</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>1758466</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>567515; 656212</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>713821; 814262</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>593816; 685543</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>485466; 699541</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>841377; 950929</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>1105945; 1228193</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>898089; 1003188</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>953102; 1577346</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>1444252; 1579259</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>1847857; 1995433</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>1519999; 1660006</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>1551484; 2271052</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>